--- a/PhoenixCI/Excel_Template/40042.xlsx
+++ b/PhoenixCI/Excel_Template/40042.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7206D22-5104-4372-A3B7-F1070ACADDFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F868D53D-0A43-4559-84C4-DB351664774C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="40011_rpt_future" sheetId="16" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8689,7 +8688,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454BAFEB-1FF6-41E0-AB42-673CB00C26A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E28C070-175A-494C-86A2-4F4390D9D12D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8757,7 +8756,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49ACD021-A0B9-4576-AC99-D9522420253A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A7D133-16F3-47AA-A727-8745EC8AB716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8830,7 +8829,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F15482-3C18-41B1-B40F-1946ED9141BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B1F33E-5D69-46AC-8DDB-55954903CE9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8916,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC25A9F5-4DAF-4D74-B420-A96440A0B474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58188591-A1AF-4D68-B160-571815B960BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9002,7 +9001,7 @@
         <xdr:cNvPr id="4" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E13C1E-76F8-4CF6-9834-315469030BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05B8A65-45FE-451B-98EA-D0753AA1E488}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9093,7 +9092,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B8A0A2-C654-4684-9A73-9DC1A0495841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8884C688-B091-4E24-B71F-2BC3AE6D39F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9166,7 +9165,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F183F512-5907-4B6A-9C2F-FE18852F2751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34E27A4-8642-4B8E-A593-D348AEFFDE16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9252,7 +9251,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A75DD3F-729F-4145-A933-02CC73B20D47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD543D9-BE14-4BEC-B846-EE8185B12FF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9338,7 +9337,7 @@
         <xdr:cNvPr id="4" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08398FB4-AC34-42DC-8038-DCB40E7C3315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCA1BAB-FC5F-4459-8B3F-2EFACA0E9686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9429,7 +9428,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A8FB49-A3E4-45FE-9BC2-C4E46F318856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA6241A-FD02-44D4-866A-4394FEE05653}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/PhoenixCI/Excel_Template/40042.xlsx
+++ b/PhoenixCI/Excel_Template/40042.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F868D53D-0A43-4559-84C4-DB351664774C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7206D22-5104-4372-A3B7-F1070ACADDFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="40011_rpt_future" sheetId="16" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8688,7 +8689,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E28C070-175A-494C-86A2-4F4390D9D12D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454BAFEB-1FF6-41E0-AB42-673CB00C26A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8756,7 +8757,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A7D133-16F3-47AA-A727-8745EC8AB716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49ACD021-A0B9-4576-AC99-D9522420253A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8829,7 +8830,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B1F33E-5D69-46AC-8DDB-55954903CE9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F15482-3C18-41B1-B40F-1946ED9141BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8916,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58188591-A1AF-4D68-B160-571815B960BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC25A9F5-4DAF-4D74-B420-A96440A0B474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9001,7 +9002,7 @@
         <xdr:cNvPr id="4" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05B8A65-45FE-451B-98EA-D0753AA1E488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E13C1E-76F8-4CF6-9834-315469030BF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9092,7 +9093,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8884C688-B091-4E24-B71F-2BC3AE6D39F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B8A0A2-C654-4684-9A73-9DC1A0495841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9165,7 +9166,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34E27A4-8642-4B8E-A593-D348AEFFDE16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F183F512-5907-4B6A-9C2F-FE18852F2751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9251,7 +9252,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD543D9-BE14-4BEC-B846-EE8185B12FF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A75DD3F-729F-4145-A933-02CC73B20D47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9337,7 +9338,7 @@
         <xdr:cNvPr id="4" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCA1BAB-FC5F-4459-8B3F-2EFACA0E9686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08398FB4-AC34-42DC-8038-DCB40E7C3315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9429,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA6241A-FD02-44D4-866A-4394FEE05653}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A8FB49-A3E4-45FE-9BC2-C4E46F318856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
